--- a/similarities/split_global/harmonic_similarity_timestamps_173.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_173.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['G', 'C', 'D:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:48.420000', '0:00:58.560000')]</t>
+          <t>('0:00:48.172947', '0:00:53.606417')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:03.740000')]</t>
+          <t>('0:04:01.812000', '0:04:15.633000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=48.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=48.172947</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=241.812</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:51.839081', '0:01:03.042709')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:02:37.840000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:46.900000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:00:00.220000', '0:00:08.880000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=46.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['G', 'C:min', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:52.580000', '0:00:54.240000')]</t>
+          <t>('0:00:09.380000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:00:54.639000', '0:00:59.554000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=9.38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:13.500000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.500000', '0:00:03.900000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:01:06.920000', '0:01:10.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:21.340000', '0:00:24.960000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=21.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:10.560000', '0:00:27.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:00:27.280000', '0:00:56.880000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['F#:maj/C#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.400000', '0:00:44.180000')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.360000', '0:00:18.960000')]</t>
+          <t>('0:01:02.700000', '0:01:06.960000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=62.7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:22.660000', '0:00:29.320000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.580000', '0:00:21.140000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=14.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['A/3', 'E:7', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.605000', '0:00:13.840000'), ('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:01:52.240000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=112.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:00.465952', '0:00:06.886543')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
